--- a/biology/Zoologie/Colubroides/Colubroides.xlsx
+++ b/biology/Zoologie/Colubroides/Colubroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colubroides sont un taxon de serpents équivalent à l'ancienne super-famille Colubroidea. Ils regroupent les serpents les plus connus du grand public, dont l'ensemble des espèces venimeuses.
 C'est le groupe frère des Acrochordidae dans les Caenophidia (Xenophidia).
@@ -512,7 +524,9 @@
           <t>Vision Phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colubroides
 Xenodermatidae
@@ -561,7 +575,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Wettstein, 1930 : Eine neue colubridae Schlange aus Brasilien. Zoologischer Anzeiger, vol. 88, p. 93-94.
 (en) Zaher, Grazziotin, Cadle, Murphy, de Moura-Leite &amp; Bonatto, 2009 : Molecular phylogeny of advanced snakes (Serpentes, Caenophidia) with an emphasis on South American Xenodontines: a revised classification and descriptions of new taxa. Papéis Avulsos de Zoologia (São Paulo), vol. 49, n. 11, p. 115-153 (texte intégral).</t>
